--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonCode\Sodoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9911B-F6A4-4AF5-B118-D64C011823DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A174A-3434-4107-AB2E-527F62F1302B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic" sheetId="1" r:id="rId1"/>
+    <sheet name="BlockFirstExclusion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -64,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,18 +150,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -174,7 +163,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -330,7 +331,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>(Sheet1!$D$2,Sheet1!$I$2,Sheet1!$N$2,Sheet1!$S$2)</c:f>
+              <c:f>(Basic!$D$2,Basic!$I$2,Basic!$N$2,Basic!$S$2)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -341,17 +342,17 @@
                   <c:v>188.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>268.66666666666669</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$A$2,Sheet1!$F$2,Sheet1!$K$2,Sheet1!$P$2)</c:f>
+              <c:f>(Basic!$A$2,Basic!$F$2,Basic!$K$2,Basic!$P$2)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -362,7 +363,7 @@
                   <c:v>4.8833333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.15666666666667</c:v>
+                  <c:v>132.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>537.97333333333336</c:v>
@@ -1475,1316 +1476,1328 @@
   <dimension ref="A1:T170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="2.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" style="3" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" style="3" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.77734375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="2.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="3" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="K1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="P1" s="4" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="P1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="7">
         <f t="shared" ref="A2:C2" si="0">AVERAGE(A4:A30)</f>
         <v>1.7966666666666666</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="7">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="7">
         <f>AVERAGE(D4:D30)</f>
         <v>128.33333333333334</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="7">
         <f>AVERAGE(F4:F51)</f>
         <v>4.8833333333333337</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="7">
         <f t="shared" ref="G2:I2" si="1">AVERAGE(G4:G51)</f>
         <v>389.33333333333331</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="7">
         <f t="shared" si="1"/>
         <v>47.333333333333336</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="7">
         <f t="shared" si="1"/>
         <v>188.66666666666666</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="7">
         <f>AVERAGE(K4:K80)</f>
-        <v>153.15666666666667</v>
-      </c>
-      <c r="L2" s="11">
+        <v>132.07</v>
+      </c>
+      <c r="L2" s="7">
         <f t="shared" ref="L2:N2" si="2">AVERAGE(L4:L80)</f>
-        <v>11571</v>
-      </c>
-      <c r="M2" s="11">
+        <v>9755</v>
+      </c>
+      <c r="M2" s="7">
         <f t="shared" si="2"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="N2" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="N2" s="7">
         <f t="shared" si="2"/>
-        <v>246</v>
-      </c>
-      <c r="P2" s="11">
+        <v>243</v>
+      </c>
+      <c r="P2" s="7">
         <f>AVERAGE(P4:P800)</f>
         <v>537.97333333333336</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="7">
         <f t="shared" ref="Q2:S2" si="3">AVERAGE(Q4:Q800)</f>
         <v>41060.333333333336</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="7">
         <f t="shared" si="3"/>
         <v>55.666666666666664</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="7">
         <f t="shared" si="3"/>
-        <v>268.66666666666669</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="6" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1.41</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>95</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>38</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>131</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9">
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
         <v>4.83</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>384</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>46</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="5">
         <v>174</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9">
+      <c r="J4" s="6"/>
+      <c r="K4" s="5">
         <v>134.97999999999999</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="5">
         <v>9928</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="5">
         <v>52</v>
       </c>
-      <c r="N4" s="9">
-        <v>231</v>
-      </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="9">
+      <c r="N4" s="5">
+        <v>228</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5">
         <v>164.99</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="5">
         <v>12941</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="5">
         <v>55</v>
       </c>
-      <c r="S4" s="9">
-        <v>257</v>
-      </c>
-      <c r="T4" s="10"/>
-    </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="S4" s="5">
+        <v>253</v>
+      </c>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1.91</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>149</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>38</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>127</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
         <v>5.63</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>454</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>48</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="5">
         <v>198</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="9">
+      <c r="J5" s="6"/>
+      <c r="K5" s="5">
         <v>269.5</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="5">
         <v>20802</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="5">
         <v>54</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="5">
         <v>262</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="9">
+      <c r="O5" s="6"/>
+      <c r="P5" s="5">
         <v>454.75</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="5">
         <v>34779</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="5">
         <v>55</v>
       </c>
-      <c r="S5" s="9">
-        <v>256</v>
-      </c>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="S5" s="5">
+        <v>250</v>
+      </c>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2.0699999999999998</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>149</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>38</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>127</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9">
+      <c r="E6" s="6"/>
+      <c r="F6" s="5">
         <v>4.1900000000000004</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>330</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>48</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="5">
         <v>194</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="9">
+      <c r="J6" s="6"/>
+      <c r="K6" s="5">
         <v>54.99</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="5">
         <v>3983</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="5">
         <v>54</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="5">
         <v>245</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="9">
+      <c r="O6" s="6"/>
+      <c r="P6" s="5">
         <v>994.18</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="5">
         <v>75461</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="5">
         <v>57</v>
       </c>
-      <c r="S6" s="9">
-        <v>293</v>
-      </c>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="T18" s="10"/>
-    </row>
-    <row r="19" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="T20" s="10"/>
-    </row>
-    <row r="21" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="T21" s="10"/>
-    </row>
-    <row r="22" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="T22" s="10"/>
-    </row>
-    <row r="23" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="T24" s="10"/>
-    </row>
-    <row r="25" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="T29" s="10"/>
-    </row>
-    <row r="30" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="T34" s="10"/>
-    </row>
-    <row r="35" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="T35" s="10"/>
-    </row>
-    <row r="36" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="T36" s="10"/>
-    </row>
-    <row r="37" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="T37" s="10"/>
-    </row>
-    <row r="38" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="T38" s="10"/>
-    </row>
-    <row r="39" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="T39" s="10"/>
-    </row>
-    <row r="40" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="T40" s="10"/>
-    </row>
-    <row r="41" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="T41" s="10"/>
-    </row>
-    <row r="42" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="T42" s="10"/>
-    </row>
-    <row r="43" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="T43" s="10"/>
-    </row>
-    <row r="44" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="T44" s="10"/>
-    </row>
-    <row r="45" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="T45" s="10"/>
-    </row>
-    <row r="46" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="T46" s="10"/>
-    </row>
-    <row r="47" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="T47" s="10"/>
-    </row>
-    <row r="48" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="T48" s="10"/>
-    </row>
-    <row r="49" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="T49" s="10"/>
-    </row>
-    <row r="50" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="T50" s="10"/>
-    </row>
-    <row r="51" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="T51" s="10"/>
-    </row>
-    <row r="52" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="T52" s="10"/>
-    </row>
-    <row r="53" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="T53" s="10"/>
-    </row>
-    <row r="54" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="T54" s="10"/>
-    </row>
-    <row r="55" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="T55" s="10"/>
-    </row>
-    <row r="56" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="T56" s="10"/>
-    </row>
-    <row r="57" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="T57" s="10"/>
-    </row>
-    <row r="58" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="T58" s="10"/>
-    </row>
-    <row r="59" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="T59" s="10"/>
-    </row>
-    <row r="60" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="T60" s="10"/>
-    </row>
-    <row r="61" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="T61" s="10"/>
-    </row>
-    <row r="62" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="T62" s="10"/>
-    </row>
-    <row r="63" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="T63" s="10"/>
-    </row>
-    <row r="64" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="T64" s="10"/>
-    </row>
-    <row r="65" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="T65" s="10"/>
-    </row>
-    <row r="66" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="T66" s="10"/>
-    </row>
-    <row r="67" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="T67" s="10"/>
-    </row>
-    <row r="68" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="T68" s="10"/>
-    </row>
-    <row r="69" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="T69" s="10"/>
-    </row>
-    <row r="70" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="T70" s="10"/>
-    </row>
-    <row r="71" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="T71" s="10"/>
-    </row>
-    <row r="72" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="T72" s="10"/>
-    </row>
-    <row r="73" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="T73" s="10"/>
-    </row>
-    <row r="74" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="T74" s="10"/>
-    </row>
-    <row r="75" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="T75" s="10"/>
-    </row>
-    <row r="76" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="T76" s="10"/>
-    </row>
-    <row r="77" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="T77" s="10"/>
-    </row>
-    <row r="78" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="T78" s="10"/>
-    </row>
-    <row r="79" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="T79" s="10"/>
-    </row>
-    <row r="80" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="T80" s="10"/>
-    </row>
-    <row r="81" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="T81" s="10"/>
-    </row>
-    <row r="82" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="T82" s="10"/>
-    </row>
-    <row r="83" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="T83" s="10"/>
-    </row>
-    <row r="84" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="T84" s="10"/>
-    </row>
-    <row r="85" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="T85" s="10"/>
-    </row>
-    <row r="86" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="T86" s="10"/>
-    </row>
-    <row r="87" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="T87" s="10"/>
-    </row>
-    <row r="88" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="T88" s="10"/>
-    </row>
-    <row r="89" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="T89" s="10"/>
-    </row>
-    <row r="90" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="T90" s="10"/>
-    </row>
-    <row r="91" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="T91" s="10"/>
-    </row>
-    <row r="92" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="T92" s="10"/>
-    </row>
-    <row r="93" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="O93" s="10"/>
-      <c r="T93" s="10"/>
-    </row>
-    <row r="94" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="O94" s="10"/>
-      <c r="T94" s="10"/>
-    </row>
-    <row r="95" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="O95" s="10"/>
-      <c r="T95" s="10"/>
-    </row>
-    <row r="96" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="O96" s="10"/>
-      <c r="T96" s="10"/>
-    </row>
-    <row r="97" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="O97" s="10"/>
-      <c r="T97" s="10"/>
-    </row>
-    <row r="98" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="T98" s="10"/>
-    </row>
-    <row r="99" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="O99" s="10"/>
-      <c r="T99" s="10"/>
-    </row>
-    <row r="100" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="T100" s="10"/>
-    </row>
-    <row r="101" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="T101" s="10"/>
-    </row>
-    <row r="102" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="O102" s="10"/>
-      <c r="T102" s="10"/>
-    </row>
-    <row r="103" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="O103" s="10"/>
-      <c r="T103" s="10"/>
-    </row>
-    <row r="104" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="O104" s="10"/>
-      <c r="T104" s="10"/>
-    </row>
-    <row r="105" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="O105" s="10"/>
-      <c r="T105" s="10"/>
-    </row>
-    <row r="106" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="O106" s="10"/>
-      <c r="T106" s="10"/>
-    </row>
-    <row r="107" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="O107" s="10"/>
-      <c r="T107" s="10"/>
-    </row>
-    <row r="108" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="10"/>
-      <c r="J108" s="10"/>
-      <c r="O108" s="10"/>
-      <c r="T108" s="10"/>
-    </row>
-    <row r="109" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="O109" s="10"/>
-      <c r="T109" s="10"/>
-    </row>
-    <row r="110" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="O110" s="10"/>
-      <c r="T110" s="10"/>
-    </row>
-    <row r="111" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="O111" s="10"/>
-      <c r="T111" s="10"/>
-    </row>
-    <row r="112" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="O112" s="10"/>
-      <c r="T112" s="10"/>
-    </row>
-    <row r="113" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="O113" s="10"/>
-      <c r="T113" s="10"/>
-    </row>
-    <row r="114" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="O114" s="10"/>
-      <c r="T114" s="10"/>
-    </row>
-    <row r="115" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="O115" s="10"/>
-      <c r="T115" s="10"/>
-    </row>
-    <row r="116" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="O116" s="10"/>
-      <c r="T116" s="10"/>
-    </row>
-    <row r="117" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="O117" s="10"/>
-      <c r="T117" s="10"/>
-    </row>
-    <row r="118" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="O118" s="10"/>
-      <c r="T118" s="10"/>
-    </row>
-    <row r="119" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="O119" s="10"/>
-      <c r="T119" s="10"/>
-    </row>
-    <row r="120" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="O120" s="10"/>
-      <c r="T120" s="10"/>
-    </row>
-    <row r="121" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="O121" s="10"/>
-      <c r="T121" s="10"/>
-    </row>
-    <row r="122" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="O122" s="10"/>
-      <c r="T122" s="10"/>
-    </row>
-    <row r="123" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="O123" s="10"/>
-      <c r="T123" s="10"/>
-    </row>
-    <row r="124" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="O124" s="10"/>
-      <c r="T124" s="10"/>
-    </row>
-    <row r="125" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="O125" s="10"/>
-      <c r="T125" s="10"/>
-    </row>
-    <row r="126" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="O126" s="10"/>
-      <c r="T126" s="10"/>
-    </row>
-    <row r="127" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="O127" s="10"/>
-      <c r="T127" s="10"/>
-    </row>
-    <row r="128" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="O128" s="10"/>
-      <c r="T128" s="10"/>
-    </row>
-    <row r="129" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="O129" s="10"/>
-      <c r="T129" s="10"/>
-    </row>
-    <row r="130" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="O130" s="10"/>
-      <c r="T130" s="10"/>
-    </row>
-    <row r="131" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="O131" s="10"/>
-      <c r="T131" s="10"/>
-    </row>
-    <row r="132" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="O132" s="10"/>
-      <c r="T132" s="10"/>
-    </row>
-    <row r="133" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="O133" s="10"/>
-      <c r="T133" s="10"/>
-    </row>
-    <row r="134" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="O134" s="10"/>
-      <c r="T134" s="10"/>
-    </row>
-    <row r="135" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="O135" s="10"/>
-      <c r="T135" s="10"/>
-    </row>
-    <row r="136" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E136" s="10"/>
-      <c r="J136" s="10"/>
-      <c r="O136" s="10"/>
-      <c r="T136" s="10"/>
-    </row>
-    <row r="137" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E137" s="10"/>
-      <c r="J137" s="10"/>
-      <c r="O137" s="10"/>
-      <c r="T137" s="10"/>
-    </row>
-    <row r="138" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="O138" s="10"/>
-      <c r="T138" s="10"/>
-    </row>
-    <row r="139" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="O139" s="10"/>
-      <c r="T139" s="10"/>
-    </row>
-    <row r="140" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E140" s="10"/>
-      <c r="J140" s="10"/>
-      <c r="O140" s="10"/>
-      <c r="T140" s="10"/>
-    </row>
-    <row r="141" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="O141" s="10"/>
-      <c r="T141" s="10"/>
-    </row>
-    <row r="142" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="O142" s="10"/>
-      <c r="T142" s="10"/>
-    </row>
-    <row r="143" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E143" s="10"/>
-      <c r="J143" s="10"/>
-      <c r="O143" s="10"/>
-      <c r="T143" s="10"/>
-    </row>
-    <row r="144" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E144" s="10"/>
-      <c r="J144" s="10"/>
-      <c r="O144" s="10"/>
-      <c r="T144" s="10"/>
-    </row>
-    <row r="145" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E145" s="10"/>
-      <c r="J145" s="10"/>
-      <c r="O145" s="10"/>
-      <c r="T145" s="10"/>
-    </row>
-    <row r="146" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="O146" s="10"/>
-      <c r="T146" s="10"/>
-    </row>
-    <row r="147" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="O147" s="10"/>
-      <c r="T147" s="10"/>
-    </row>
-    <row r="148" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="O148" s="10"/>
-      <c r="T148" s="10"/>
-    </row>
-    <row r="149" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="O149" s="10"/>
-      <c r="T149" s="10"/>
-    </row>
-    <row r="150" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="O150" s="10"/>
-      <c r="T150" s="10"/>
-    </row>
-    <row r="151" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="O151" s="10"/>
-      <c r="T151" s="10"/>
-    </row>
-    <row r="152" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E152" s="10"/>
-      <c r="J152" s="10"/>
-      <c r="O152" s="10"/>
-      <c r="T152" s="10"/>
-    </row>
-    <row r="153" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E153" s="10"/>
-      <c r="J153" s="10"/>
-      <c r="O153" s="10"/>
-      <c r="T153" s="10"/>
-    </row>
-    <row r="154" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E154" s="10"/>
-      <c r="J154" s="10"/>
-      <c r="O154" s="10"/>
-      <c r="T154" s="10"/>
-    </row>
-    <row r="155" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E155" s="10"/>
-      <c r="J155" s="10"/>
-      <c r="O155" s="10"/>
-      <c r="T155" s="10"/>
-    </row>
-    <row r="156" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="O156" s="10"/>
-      <c r="T156" s="10"/>
-    </row>
-    <row r="157" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="O157" s="10"/>
-      <c r="T157" s="10"/>
-    </row>
-    <row r="158" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="O158" s="10"/>
-      <c r="T158" s="10"/>
-    </row>
-    <row r="159" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="O159" s="10"/>
-      <c r="T159" s="10"/>
-    </row>
-    <row r="160" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E160" s="10"/>
-      <c r="J160" s="10"/>
-      <c r="O160" s="10"/>
-      <c r="T160" s="10"/>
-    </row>
-    <row r="161" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="O161" s="10"/>
-      <c r="T161" s="10"/>
-    </row>
-    <row r="162" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E162" s="10"/>
-      <c r="J162" s="10"/>
-      <c r="O162" s="10"/>
-      <c r="T162" s="10"/>
-    </row>
-    <row r="163" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="O163" s="10"/>
-      <c r="T163" s="10"/>
-    </row>
-    <row r="164" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E164" s="10"/>
-      <c r="J164" s="10"/>
-      <c r="O164" s="10"/>
-      <c r="T164" s="10"/>
-    </row>
-    <row r="165" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E165" s="10"/>
-      <c r="J165" s="10"/>
-      <c r="O165" s="10"/>
-      <c r="T165" s="10"/>
-    </row>
-    <row r="166" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="O166" s="10"/>
-      <c r="T166" s="10"/>
-    </row>
-    <row r="167" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E167" s="10"/>
-      <c r="J167" s="10"/>
-      <c r="O167" s="10"/>
-      <c r="T167" s="10"/>
-    </row>
-    <row r="168" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E168" s="10"/>
-      <c r="J168" s="10"/>
-      <c r="O168" s="10"/>
-      <c r="T168" s="10"/>
-    </row>
-    <row r="169" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E169" s="10"/>
-      <c r="J169" s="10"/>
-      <c r="O169" s="10"/>
-      <c r="T169" s="10"/>
-    </row>
-    <row r="170" spans="5:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E170" s="10"/>
-      <c r="J170" s="10"/>
-      <c r="O170" s="10"/>
-      <c r="T170" s="10"/>
+      <c r="S6" s="5">
+        <v>283</v>
+      </c>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5">
+        <v>68.81</v>
+      </c>
+      <c r="L7" s="5">
+        <v>4307</v>
+      </c>
+      <c r="M7" s="5">
+        <v>54</v>
+      </c>
+      <c r="N7" s="5">
+        <v>237</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="T72" s="6"/>
+    </row>
+    <row r="73" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="T78" s="6"/>
+    </row>
+    <row r="79" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="T79" s="6"/>
+    </row>
+    <row r="80" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="T83" s="6"/>
+    </row>
+    <row r="84" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="T103" s="6"/>
+    </row>
+    <row r="104" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="T105" s="6"/>
+    </row>
+    <row r="106" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="T106" s="6"/>
+    </row>
+    <row r="107" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="T107" s="6"/>
+    </row>
+    <row r="108" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="T108" s="6"/>
+    </row>
+    <row r="109" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="T109" s="6"/>
+    </row>
+    <row r="110" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="T110" s="6"/>
+    </row>
+    <row r="111" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="T111" s="6"/>
+    </row>
+    <row r="112" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="T112" s="6"/>
+    </row>
+    <row r="113" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="T113" s="6"/>
+    </row>
+    <row r="114" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="T114" s="6"/>
+    </row>
+    <row r="115" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="T115" s="6"/>
+    </row>
+    <row r="116" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="T116" s="6"/>
+    </row>
+    <row r="117" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="T117" s="6"/>
+    </row>
+    <row r="118" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="T118" s="6"/>
+    </row>
+    <row r="119" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="T119" s="6"/>
+    </row>
+    <row r="120" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="T120" s="6"/>
+    </row>
+    <row r="121" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="T121" s="6"/>
+    </row>
+    <row r="122" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="T122" s="6"/>
+    </row>
+    <row r="123" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="T123" s="6"/>
+    </row>
+    <row r="124" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="T124" s="6"/>
+    </row>
+    <row r="125" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="T125" s="6"/>
+    </row>
+    <row r="126" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="T126" s="6"/>
+    </row>
+    <row r="127" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="T127" s="6"/>
+    </row>
+    <row r="128" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="T128" s="6"/>
+    </row>
+    <row r="129" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="T129" s="6"/>
+    </row>
+    <row r="130" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="T130" s="6"/>
+    </row>
+    <row r="131" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="T131" s="6"/>
+    </row>
+    <row r="132" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="T132" s="6"/>
+    </row>
+    <row r="133" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="T133" s="6"/>
+    </row>
+    <row r="134" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="T134" s="6"/>
+    </row>
+    <row r="135" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="T135" s="6"/>
+    </row>
+    <row r="136" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="T136" s="6"/>
+    </row>
+    <row r="137" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="T137" s="6"/>
+    </row>
+    <row r="138" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="T138" s="6"/>
+    </row>
+    <row r="139" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="T139" s="6"/>
+    </row>
+    <row r="140" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="T140" s="6"/>
+    </row>
+    <row r="141" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="T141" s="6"/>
+    </row>
+    <row r="142" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="T142" s="6"/>
+    </row>
+    <row r="143" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="T143" s="6"/>
+    </row>
+    <row r="144" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="T144" s="6"/>
+    </row>
+    <row r="145" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="T145" s="6"/>
+    </row>
+    <row r="146" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="T146" s="6"/>
+    </row>
+    <row r="147" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="T147" s="6"/>
+    </row>
+    <row r="148" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="T148" s="6"/>
+    </row>
+    <row r="149" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="T149" s="6"/>
+    </row>
+    <row r="150" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="T150" s="6"/>
+    </row>
+    <row r="151" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="T151" s="6"/>
+    </row>
+    <row r="152" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="T152" s="6"/>
+    </row>
+    <row r="153" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="T153" s="6"/>
+    </row>
+    <row r="154" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="T156" s="6"/>
+    </row>
+    <row r="157" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="T157" s="6"/>
+    </row>
+    <row r="158" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="T159" s="6"/>
+    </row>
+    <row r="160" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="T160" s="6"/>
+    </row>
+    <row r="161" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="T161" s="6"/>
+    </row>
+    <row r="162" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="T162" s="6"/>
+    </row>
+    <row r="163" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="T163" s="6"/>
+    </row>
+    <row r="164" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="T164" s="6"/>
+    </row>
+    <row r="165" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="T165" s="6"/>
+    </row>
+    <row r="166" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="T166" s="6"/>
+    </row>
+    <row r="167" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="T167" s="6"/>
+    </row>
+    <row r="168" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="T168" s="6"/>
+    </row>
+    <row r="169" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="T169" s="6"/>
+    </row>
+    <row r="170" spans="5:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="T170" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2798,4 +2811,17 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE2365A-C202-42D2-8F1C-5E2BF9E9869A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonCode\Sodoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A174A-3434-4107-AB2E-527F62F1302B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D19E75A-D048-4C44-BD3B-D95ACAF4E0AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,16 +336,16 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>128.33333333333334</c:v>
+                  <c:v>131.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188.66666666666666</c:v>
+                  <c:v>185.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243</c:v>
+                  <c:v>238.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262</c:v>
+                  <c:v>270.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,16 +357,16 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.7966666666666666</c:v>
+                  <c:v>5.5620000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8833333333333337</c:v>
+                  <c:v>16.922999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132.07</c:v>
+                  <c:v>179.83599999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>537.97333333333336</c:v>
+                  <c:v>609.16199999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,6 +375,386 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-589A-464B-8628-C2A455A327A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="544785408"/>
+        <c:axId val="544777864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="544785408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544777864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544777864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544785408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Step</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Basic!$D$2,Basic!$I$2,Basic!$N$2,Basic!$S$2)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>131.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270.60000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Basic!$B$2,Basic!$G$2,Basic!$L$2,Basic!$Q$2)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>383.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1336.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13954.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47744.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4812-4BD1-B0D3-B2D9367E45BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -620,6 +1000,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -1169,20 +1589,569 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>146304</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1202,6 +2171,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>21336</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC022FCD-D58E-4F3E-B098-93973C7D21E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1475,14 +2482,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="2.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="2.88671875" style="3" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
@@ -1524,67 +2531,67 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f t="shared" ref="A2:C2" si="0">AVERAGE(A4:A30)</f>
-        <v>1.7966666666666666</v>
+        <v>5.5620000000000003</v>
       </c>
       <c r="B2" s="7">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>383.7</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40.1</v>
       </c>
       <c r="D2" s="7">
         <f>AVERAGE(D4:D30)</f>
-        <v>128.33333333333334</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="F2" s="7">
         <f>AVERAGE(F4:F51)</f>
-        <v>4.8833333333333337</v>
+        <v>16.922999999999998</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" ref="G2:I2" si="1">AVERAGE(G4:G51)</f>
-        <v>389.33333333333331</v>
+        <v>1336.8</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="1"/>
-        <v>47.333333333333336</v>
+        <v>47.8</v>
       </c>
       <c r="I2" s="7">
         <f t="shared" si="1"/>
-        <v>188.66666666666666</v>
+        <v>185.9</v>
       </c>
       <c r="K2" s="7">
         <f>AVERAGE(K4:K80)</f>
-        <v>132.07</v>
+        <v>179.83599999999996</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:N2" si="2">AVERAGE(L4:L80)</f>
-        <v>9755</v>
+        <v>13954.5</v>
       </c>
       <c r="M2" s="7">
         <f t="shared" si="2"/>
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="N2" s="7">
         <f t="shared" si="2"/>
-        <v>243</v>
+        <v>238.9</v>
       </c>
       <c r="P2" s="7">
         <f>AVERAGE(P4:P800)</f>
-        <v>537.97333333333336</v>
+        <v>609.16199999999992</v>
       </c>
       <c r="Q2" s="7">
         <f t="shared" ref="Q2:S2" si="3">AVERAGE(Q4:Q800)</f>
-        <v>41060.333333333336</v>
+        <v>47744.6</v>
       </c>
       <c r="R2" s="7">
         <f t="shared" si="3"/>
-        <v>55.666666666666664</v>
+        <v>56.4</v>
       </c>
       <c r="S2" s="7">
         <f t="shared" si="3"/>
-        <v>262</v>
+        <v>270.60000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1643,7 +2650,7 @@
     </row>
     <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="B4" s="5">
         <v>95</v>
@@ -1652,7 +2659,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="5">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
@@ -1697,7 +2704,7 @@
     </row>
     <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="B5" s="5">
         <v>149</v>
@@ -1706,7 +2713,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="5">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
@@ -1751,7 +2758,7 @@
     </row>
     <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>2.0699999999999998</v>
+        <v>2.15</v>
       </c>
       <c r="B6" s="5">
         <v>149</v>
@@ -1760,7 +2767,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="5">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5">
@@ -1804,7 +2811,31 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2.72</v>
+      </c>
+      <c r="B7" s="5">
+        <v>203</v>
+      </c>
+      <c r="C7" s="5">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5">
+        <v>123</v>
+      </c>
       <c r="E7" s="6"/>
+      <c r="F7" s="5">
+        <v>30.14</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2191</v>
+      </c>
+      <c r="H7" s="5">
+        <v>48</v>
+      </c>
+      <c r="I7" s="5">
+        <v>186</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="5">
         <v>68.81</v>
@@ -1819,42 +2850,342 @@
         <v>237</v>
       </c>
       <c r="O7" s="6"/>
+      <c r="P7" s="5">
+        <v>998.24</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>79402</v>
+      </c>
+      <c r="R7" s="5">
+        <v>57</v>
+      </c>
+      <c r="S7" s="5">
+        <v>273</v>
+      </c>
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="B8" s="5">
+        <v>141</v>
+      </c>
+      <c r="C8" s="5">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5">
+        <v>142</v>
+      </c>
       <c r="E8" s="6"/>
+      <c r="F8" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G8" s="5">
+        <v>382</v>
+      </c>
+      <c r="H8" s="5">
+        <v>48</v>
+      </c>
+      <c r="I8" s="5">
+        <v>189</v>
+      </c>
       <c r="J8" s="6"/>
+      <c r="K8" s="5">
+        <v>95.95</v>
+      </c>
+      <c r="L8" s="5">
+        <v>7599</v>
+      </c>
+      <c r="M8" s="5">
+        <v>54</v>
+      </c>
+      <c r="N8" s="5">
+        <v>249</v>
+      </c>
       <c r="O8" s="6"/>
+      <c r="P8" s="5">
+        <v>88.18</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>6976</v>
+      </c>
+      <c r="R8" s="5">
+        <v>55</v>
+      </c>
+      <c r="S8" s="5">
+        <v>253</v>
+      </c>
       <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2.16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>150</v>
+      </c>
+      <c r="C9" s="5">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5">
+        <v>131</v>
+      </c>
       <c r="E9" s="6"/>
+      <c r="F9" s="5">
+        <v>12.08</v>
+      </c>
+      <c r="G9" s="5">
+        <v>966</v>
+      </c>
+      <c r="H9" s="5">
+        <v>48</v>
+      </c>
+      <c r="I9" s="5">
+        <v>179</v>
+      </c>
       <c r="J9" s="6"/>
+      <c r="K9" s="5">
+        <v>606.29999999999995</v>
+      </c>
+      <c r="L9" s="5">
+        <v>47664</v>
+      </c>
+      <c r="M9" s="5">
+        <v>54</v>
+      </c>
+      <c r="N9" s="5">
+        <v>239</v>
+      </c>
       <c r="O9" s="6"/>
+      <c r="P9" s="5">
+        <v>2206.7199999999998</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>174368</v>
+      </c>
+      <c r="R9" s="5">
+        <v>57</v>
+      </c>
+      <c r="S9" s="5">
+        <v>267</v>
+      </c>
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2.92</v>
+      </c>
+      <c r="B10" s="5">
+        <v>215</v>
+      </c>
+      <c r="C10" s="5">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5">
+        <v>132</v>
+      </c>
       <c r="E10" s="6"/>
+      <c r="F10" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1477</v>
+      </c>
+      <c r="H10" s="5">
+        <v>48</v>
+      </c>
+      <c r="I10" s="5">
+        <v>187</v>
+      </c>
       <c r="J10" s="6"/>
+      <c r="K10" s="5">
+        <v>47.36</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3758</v>
+      </c>
+      <c r="M10" s="5">
+        <v>54</v>
+      </c>
+      <c r="N10" s="5">
+        <v>237</v>
+      </c>
       <c r="O10" s="6"/>
+      <c r="P10" s="5">
+        <v>124.42</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>9934</v>
+      </c>
+      <c r="R10" s="5">
+        <v>57</v>
+      </c>
+      <c r="S10" s="5">
+        <v>278</v>
+      </c>
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="B11" s="5">
+        <v>89</v>
+      </c>
+      <c r="C11" s="5">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5">
+        <v>140</v>
+      </c>
       <c r="E11" s="6"/>
+      <c r="F11" s="5">
+        <v>15.27</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1229</v>
+      </c>
+      <c r="H11" s="5">
+        <v>48</v>
+      </c>
+      <c r="I11" s="5">
+        <v>184</v>
+      </c>
       <c r="J11" s="6"/>
+      <c r="K11" s="5">
+        <v>324.31</v>
+      </c>
+      <c r="L11" s="5">
+        <v>25593</v>
+      </c>
+      <c r="M11" s="5">
+        <v>54</v>
+      </c>
+      <c r="N11" s="5">
+        <v>238</v>
+      </c>
       <c r="O11" s="6"/>
+      <c r="P11" s="5">
+        <v>837.4</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>66034</v>
+      </c>
+      <c r="R11" s="5">
+        <v>57</v>
+      </c>
+      <c r="S11" s="5">
+        <v>284</v>
+      </c>
       <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="B12" s="5">
+        <v>95</v>
+      </c>
+      <c r="C12" s="5">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5">
+        <v>141</v>
+      </c>
       <c r="E12" s="6"/>
+      <c r="F12" s="5">
+        <v>69.47</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5649</v>
+      </c>
+      <c r="H12" s="5">
+        <v>48</v>
+      </c>
+      <c r="I12" s="5">
+        <v>196</v>
+      </c>
       <c r="J12" s="6"/>
+      <c r="K12" s="5">
+        <v>29.78</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2400</v>
+      </c>
+      <c r="M12" s="5">
+        <v>52</v>
+      </c>
+      <c r="N12" s="5">
+        <v>207</v>
+      </c>
       <c r="O12" s="6"/>
+      <c r="P12" s="5">
+        <v>115.99</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>9162</v>
+      </c>
+      <c r="R12" s="5">
+        <v>57</v>
+      </c>
+      <c r="S12" s="5">
+        <v>287</v>
+      </c>
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>36.71</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2551</v>
+      </c>
+      <c r="C13" s="5">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5">
+        <v>146</v>
+      </c>
       <c r="E13" s="6"/>
+      <c r="F13" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="G13" s="5">
+        <v>306</v>
+      </c>
+      <c r="H13" s="5">
+        <v>48</v>
+      </c>
+      <c r="I13" s="5">
+        <v>172</v>
+      </c>
       <c r="J13" s="6"/>
+      <c r="K13" s="5">
+        <v>166.38</v>
+      </c>
+      <c r="L13" s="5">
+        <v>13511</v>
+      </c>
+      <c r="M13" s="5">
+        <v>54</v>
+      </c>
+      <c r="N13" s="5">
+        <v>247</v>
+      </c>
       <c r="O13" s="6"/>
+      <c r="P13" s="5">
+        <v>106.75</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>8389</v>
+      </c>
+      <c r="R13" s="5">
+        <v>57</v>
+      </c>
+      <c r="S13" s="5">
+        <v>278</v>
+      </c>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonCode\Sodoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D19E75A-D048-4C44-BD3B-D95ACAF4E0AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74687D5-169D-4393-894F-7E18B9B99DD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2482,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Statistic.xlsx
+++ b/Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonCode\Sodoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74687D5-169D-4393-894F-7E18B9B99DD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173C8F29-43EC-4DF5-9A70-E234E5961A0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Candiates</t>
+    <t>Candidates</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2483,22 +2483,25 @@
   <dimension ref="A1:T170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6:X9"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="2.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
     <col min="10" max="10" width="2.88671875" style="3" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
     <col min="15" max="15" width="2.5546875" style="3" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
     <col min="20" max="20" width="2.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
